--- a/biology/Zoologie/Cyclocosmia_ricketti/Cyclocosmia_ricketti.xlsx
+++ b/biology/Zoologie/Cyclocosmia_ricketti/Cyclocosmia_ricketti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclocosmia ricketti est une espèce d'araignées mygalomorphes de la famille des Halonoproctidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclocosmia ricketti est une espèce d'araignées mygalomorphes de la famille des Halonoproctidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Chine[1]. Elle se rencontre au Fujian, au Jiangxi, au Sichuan, au Hunan et au Zhejiang[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Chine. Elle se rencontre au Fujian, au Jiangxi, au Sichuan, au Hunan et au Zhejiang.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 28 mm[3].
-Les femelles mesurent de 25,83 mm[4] à 30,0 mm[5].
-Le mâle décrit par Lin, Yu, Yan et Li en 2022 mesure 13,41 mm[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 28 mm.
+Les femelles mesurent de 25,83 mm à 30,0 mm.
+Le mâle décrit par Lin, Yu, Yan et Li en 2022 mesure 13,41 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Halonoproctus ricketti par Pocock en 1901. Elle est placée dans le genre Cyclocosmia par Simon en 1903[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Halonoproctus ricketti par Pocock en 1901. Elle est placée dans le genre Cyclocosmia par Simon en 1903.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Boughey Rickett[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Boughey Rickett.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pocock, 1901 : « On some new trap-door spiders from China. » Proceedings of the Zoological Society of London, vol. 1901, no 1, p. 207-215 (texte intégral).</t>
         </is>
